--- a/data/trans_orig/P1434-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1434-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBE47D42-9988-464B-AB22-D587C584ECB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{837E415D-5E7A-435C-9EEA-FBD76777D783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9B502CF5-F3F7-463A-99B8-FB4E26A094A8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF4C028E-AF7F-4609-81E9-D5E221AC669F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="255">
   <si>
     <t>Población con diagnóstico de trastornos de próstata en 2007 (Tasa respuesta: 49,36%)</t>
   </si>
@@ -92,10 +92,10 @@
     <t>2,59%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,10 +104,10 @@
     <t>97,41%</t>
   </si>
   <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>100%</t>
@@ -122,19 +122,19 @@
     <t>2,97%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>97,03%</t>
   </si>
   <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -146,661 +146,664 @@
     <t>2,44%</t>
   </si>
   <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2012 (Tasa respuesta: 49,3%)</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2015 (Tasa respuesta: 49,19%)</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>98,56%</t>
+    <t>97,94%</t>
   </si>
   <si>
     <t>96,34%</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
   </si>
   <si>
     <t>97,29%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2012 (Tasa respuesta: 49,3%)</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,52%)</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
   </si>
   <si>
     <t>94,24%</t>
   </si>
   <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2015 (Tasa respuesta: 49,19%)</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,52%)</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
   </si>
   <si>
     <t>5,75%</t>
   </si>
   <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
     <t>6,47%</t>
   </si>
   <si>
     <t>93,86%</t>
   </si>
   <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630119E3-5069-46A5-B84F-BBD316CE7233}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC60B3B3-4F4C-4DC0-9B81-D4105A570E24}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2774,10 +2777,10 @@
         <v>74</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2802,10 +2805,10 @@
         <v>74</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2823,13 @@
         <v>699666</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2848,13 +2851,13 @@
         <v>699666</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,7 +2929,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -2954,7 +2957,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2972,13 @@
         <v>106188</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -2997,13 +3000,13 @@
         <v>106188</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3021,13 @@
         <v>3170356</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3046,13 +3049,13 @@
         <v>3170356</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,7 +3109,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3130,7 +3133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6DBD7C-2B5A-4C43-82A4-090C70FA9C88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4954295C-3DD7-42EE-BE63-3466B1BB3D87}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3147,7 +3150,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3485,13 +3488,13 @@
         <v>17561</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3513,13 +3516,13 @@
         <v>17561</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,13 +3537,13 @@
         <v>487966</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3562,13 +3565,13 @@
         <v>487966</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,7 +3643,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3668,7 +3671,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3686,13 @@
         <v>6116</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3711,13 +3714,13 @@
         <v>6116</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,13 +3735,13 @@
         <v>317930</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3760,13 +3763,13 @@
         <v>317930</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,7 +3841,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3866,7 +3869,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3884,13 @@
         <v>26732</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3909,13 +3912,13 @@
         <v>26732</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3933,13 @@
         <v>641988</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3958,13 +3961,13 @@
         <v>641988</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,7 +4039,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4064,7 +4067,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4082,13 @@
         <v>6535</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4107,13 +4110,13 @@
         <v>6535</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,13 +4131,13 @@
         <v>206083</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4156,13 +4159,13 @@
         <v>206083</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,7 +4237,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4262,7 +4265,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4280,13 @@
         <v>6255</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4305,13 +4308,13 @@
         <v>6255</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4329,13 @@
         <v>267726</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4354,13 +4357,13 @@
         <v>267726</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,7 +4435,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4460,7 +4463,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4478,13 @@
         <v>26159</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4503,13 +4506,13 @@
         <v>26159</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,13 +4527,13 @@
         <v>634437</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -4552,13 +4555,13 @@
         <v>634437</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,7 +4633,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4658,7 +4661,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4676,13 @@
         <v>35050</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -4701,13 +4704,13 @@
         <v>35050</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4725,13 @@
         <v>744048</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4750,13 +4753,13 @@
         <v>744048</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,7 +4831,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4856,7 +4859,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4874,13 @@
         <v>124409</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -4899,13 +4902,13 @@
         <v>124409</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4920,13 +4923,13 @@
         <v>3300178</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4948,13 +4951,13 @@
         <v>3300178</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,7 +5011,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -5032,7 +5035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4372C3F1-C7D0-4F73-8706-3E655AE9397A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E22A82E-90A4-43FC-9975-CEB1F7B8D8F9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5049,7 +5052,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5205,13 +5208,13 @@
         <v>17116</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5233,13 +5236,13 @@
         <v>17116</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,13 +5257,13 @@
         <v>276645</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5282,13 +5285,13 @@
         <v>276645</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,13 +5406,13 @@
         <v>10375</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5431,13 +5434,13 @@
         <v>10375</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,13 +5455,13 @@
         <v>492200</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5480,13 +5483,13 @@
         <v>492200</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,7 +5561,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5586,7 +5589,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,13 +5604,13 @@
         <v>16099</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5629,13 +5632,13 @@
         <v>16099</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,13 +5653,13 @@
         <v>302466</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5678,13 +5681,13 @@
         <v>302466</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,7 +5759,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5784,7 +5787,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,13 +5802,13 @@
         <v>12649</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5827,13 +5830,13 @@
         <v>12649</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5851,13 @@
         <v>357315</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5876,13 +5879,13 @@
         <v>357315</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,7 +5957,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5982,7 +5985,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +6000,13 @@
         <v>5375</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6025,13 +6028,13 @@
         <v>5375</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6046,13 +6049,13 @@
         <v>205846</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6074,13 +6077,13 @@
         <v>205846</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,7 +6155,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6180,7 +6183,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,13 +6198,13 @@
         <v>5427</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6223,13 +6226,13 @@
         <v>5427</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6247,13 @@
         <v>257696</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6272,13 +6275,13 @@
         <v>257696</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,7 +6353,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6378,7 +6381,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6396,13 @@
         <v>19866</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6421,13 +6424,13 @@
         <v>19866</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,13 +6445,13 @@
         <v>636692</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6470,13 +6473,13 @@
         <v>636692</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,13 +6594,13 @@
         <v>22095</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6619,13 +6622,13 @@
         <v>22095</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6640,13 +6643,13 @@
         <v>756488</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6668,13 +6671,13 @@
         <v>756488</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6746,7 +6749,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6774,7 +6777,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,13 +6792,13 @@
         <v>109002</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6817,13 +6820,13 @@
         <v>109002</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,13 +6841,13 @@
         <v>3285348</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>187</v>
+        <v>46</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6866,13 +6869,13 @@
         <v>3285348</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>187</v>
+        <v>46</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6926,7 +6929,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -6950,7 +6953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CDB472-3DD5-4849-81A0-40E9C23AC499}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74099675-5A04-40D2-AF13-1B0A5BC6127A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6967,7 +6970,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7080,7 +7083,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7108,7 +7111,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7123,13 +7126,13 @@
         <v>10859</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>193</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7151,13 +7154,13 @@
         <v>10859</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>193</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7172,13 +7175,13 @@
         <v>249439</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7200,13 +7203,13 @@
         <v>249439</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>197</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,13 +7275,13 @@
         <v>2646</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -7300,13 +7303,13 @@
         <v>2646</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7321,13 +7324,13 @@
         <v>11444</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7349,13 +7352,13 @@
         <v>11444</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,13 +7373,13 @@
         <v>504137</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7398,13 +7401,13 @@
         <v>504137</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7470,13 +7473,13 @@
         <v>1734</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -7498,13 +7501,13 @@
         <v>1734</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,13 +7522,13 @@
         <v>25655</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7547,13 +7550,13 @@
         <v>25655</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7568,13 +7571,13 @@
         <v>294851</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7596,13 +7599,13 @@
         <v>294851</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7668,13 +7671,13 @@
         <v>4743</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7696,13 +7699,13 @@
         <v>4743</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7717,13 +7720,13 @@
         <v>20092</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -7745,13 +7748,13 @@
         <v>20092</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7766,13 +7769,13 @@
         <v>297405</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -7794,13 +7797,13 @@
         <v>297405</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7872,7 +7875,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7900,7 +7903,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7915,13 +7918,13 @@
         <v>9735</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>124</v>
+        <v>224</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -7943,13 +7946,13 @@
         <v>9735</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>124</v>
+        <v>224</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7964,13 +7967,13 @@
         <v>185676</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7992,13 +7995,13 @@
         <v>185676</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8070,7 +8073,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8098,7 +8101,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8113,13 +8116,13 @@
         <v>26343</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8141,13 +8144,13 @@
         <v>26343</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8162,13 +8165,13 @@
         <v>250880</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8190,13 +8193,13 @@
         <v>250880</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8262,13 +8265,13 @@
         <v>833</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>234</v>
+        <v>13</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -8290,13 +8293,13 @@
         <v>833</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>234</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8311,13 +8314,13 @@
         <v>30157</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8339,13 +8342,13 @@
         <v>30157</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8360,13 +8363,13 @@
         <v>591665</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>239</v>
+        <v>139</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8388,13 +8391,13 @@
         <v>591665</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>239</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8466,7 +8469,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8494,7 +8497,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8509,13 +8512,13 @@
         <v>60102</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -8537,13 +8540,13 @@
         <v>60102</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8558,13 +8561,13 @@
         <v>796212</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8586,13 +8589,13 @@
         <v>796212</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8658,13 +8661,13 @@
         <v>13070</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>249</v>
+        <v>118</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8686,13 +8689,13 @@
         <v>13070</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>249</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8707,13 +8710,13 @@
         <v>194387</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -8735,13 +8738,13 @@
         <v>194387</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8756,13 +8759,13 @@
         <v>3170265</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -8784,13 +8787,13 @@
         <v>3170265</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8844,7 +8847,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1434-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1434-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{837E415D-5E7A-435C-9EEA-FBD76777D783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ABEFAB0-24AE-4F8A-AEC6-52D280CD90A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF4C028E-AF7F-4609-81E9-D5E221AC669F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B3371F0-9588-4905-8F49-B9460F335738}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -92,10 +92,10 @@
     <t>2,59%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,10 +104,10 @@
     <t>97,41%</t>
   </si>
   <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
   </si>
   <si>
     <t>100%</t>
@@ -125,13 +125,13 @@
     <t>1,61%</t>
   </si>
   <si>
-    <t>4,55%</t>
+    <t>5,15%</t>
   </si>
   <si>
     <t>97,03%</t>
   </si>
   <si>
-    <t>95,45%</t>
+    <t>94,85%</t>
   </si>
   <si>
     <t>98,39%</t>
@@ -146,19 +146,19 @@
     <t>2,44%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
   </si>
   <si>
     <t>97,56%</t>
   </si>
   <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -170,625 +170,625 @@
     <t>1,42%</t>
   </si>
   <si>
-    <t>0,5%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2012 (Tasa respuesta: 49,3%)</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2016 (Tasa respuesta: 49,19%)</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>98,58%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
   </si>
   <si>
     <t>96,79%</t>
   </si>
   <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
     <t>96,17%</t>
   </si>
   <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2012 (Tasa respuesta: 49,3%)</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,52%)</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
   </si>
   <si>
     <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2015 (Tasa respuesta: 49,19%)</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,52%)</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
   </si>
   <si>
     <t>5,75%</t>
@@ -1215,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC60B3B3-4F4C-4DC0-9B81-D4105A570E24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C5FE56-FEEB-41D3-AA69-77FAD2E6C85B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3018,7 +3018,7 @@
         <v>3103</v>
       </c>
       <c r="D38" s="7">
-        <v>3170356</v>
+        <v>3170355</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>84</v>
@@ -3046,7 +3046,7 @@
         <v>3103</v>
       </c>
       <c r="N38" s="7">
-        <v>3170356</v>
+        <v>3170355</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>84</v>
@@ -3067,7 +3067,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>23</v>
@@ -3095,7 +3095,7 @@
         <v>3214</v>
       </c>
       <c r="N39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>23</v>
@@ -3133,7 +3133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4954295C-3DD7-42EE-BE63-3466B1BB3D87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADF6F11-9416-47E7-83B6-40652F69D8A3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3884,13 +3884,13 @@
         <v>26732</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>26732</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3933,13 @@
         <v>641988</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3961,13 +3961,13 @@
         <v>641988</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,7 +4039,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4082,13 @@
         <v>6535</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4110,13 +4110,13 @@
         <v>6535</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,13 +4131,13 @@
         <v>206083</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4159,13 +4159,13 @@
         <v>206083</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,7 +4237,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4265,7 +4265,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4280,13 @@
         <v>6255</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4308,13 +4308,13 @@
         <v>6255</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4329,13 @@
         <v>267726</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4357,13 +4357,13 @@
         <v>267726</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4478,13 @@
         <v>26159</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4506,13 +4506,13 @@
         <v>26159</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4527,13 @@
         <v>634437</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -4555,13 +4555,13 @@
         <v>634437</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,7 +4633,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4661,7 +4661,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4676,13 @@
         <v>35050</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -4704,13 +4704,13 @@
         <v>35050</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4725,13 @@
         <v>744048</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4753,13 +4753,13 @@
         <v>744048</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,13 +4874,13 @@
         <v>124409</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -4902,13 +4902,13 @@
         <v>124409</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4923,13 @@
         <v>3300178</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4951,13 +4951,13 @@
         <v>3300178</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,7 +5035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E22A82E-90A4-43FC-9975-CEB1F7B8D8F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336C41AC-619D-4EC7-9D75-DED8F6BF189B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5052,7 +5052,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5208,13 +5208,13 @@
         <v>17116</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5236,13 +5236,13 @@
         <v>17116</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5257,13 @@
         <v>276645</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5285,13 +5285,13 @@
         <v>276645</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5406,13 @@
         <v>10375</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5434,13 +5434,13 @@
         <v>10375</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,13 +5455,13 @@
         <v>492200</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5483,13 +5483,13 @@
         <v>492200</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,7 +5561,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5589,7 +5589,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,13 +5604,13 @@
         <v>16099</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5632,13 +5632,13 @@
         <v>16099</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5653,13 @@
         <v>302466</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5681,13 +5681,13 @@
         <v>302466</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,7 +5759,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5787,7 +5787,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5802,13 @@
         <v>12649</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5830,13 +5830,13 @@
         <v>12649</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5851,13 @@
         <v>357315</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5879,13 +5879,13 @@
         <v>357315</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,7 +5957,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5985,7 +5985,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,13 +6000,13 @@
         <v>5375</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6028,13 +6028,13 @@
         <v>5375</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,13 +6049,13 @@
         <v>205846</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6077,13 +6077,13 @@
         <v>205846</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,7 +6155,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,13 +6198,13 @@
         <v>5427</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6226,13 +6226,13 @@
         <v>5427</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6247,13 @@
         <v>257696</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6275,13 +6275,13 @@
         <v>257696</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,7 +6353,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6396,13 @@
         <v>19866</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6424,13 +6424,13 @@
         <v>19866</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,13 +6445,13 @@
         <v>636692</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6473,13 +6473,13 @@
         <v>636692</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6594,13 +6594,13 @@
         <v>22095</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6622,13 +6622,13 @@
         <v>22095</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6643,13 +6643,13 @@
         <v>756488</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6671,13 +6671,13 @@
         <v>756488</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6792,13 +6792,13 @@
         <v>109002</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6820,13 +6820,13 @@
         <v>109002</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6841,13 +6841,13 @@
         <v>3285348</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6869,13 +6869,13 @@
         <v>3285348</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6953,7 +6953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74099675-5A04-40D2-AF13-1B0A5BC6127A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E47214-DDC5-4D8A-BD10-C2870E676282}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6970,7 +6970,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7083,7 +7083,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7111,7 +7111,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7126,13 +7126,13 @@
         <v>10859</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7154,13 +7154,13 @@
         <v>10859</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7175,13 +7175,13 @@
         <v>249439</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7203,13 +7203,13 @@
         <v>249439</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7327,7 +7327,7 @@
         <v>204</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>205</v>
@@ -7355,7 +7355,7 @@
         <v>204</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>205</v>
@@ -7373,13 +7373,13 @@
         <v>504137</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7401,13 +7401,13 @@
         <v>504137</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7473,7 +7473,7 @@
         <v>1734</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
@@ -7501,7 +7501,7 @@
         <v>1734</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
@@ -7522,13 +7522,13 @@
         <v>25655</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7550,13 +7550,13 @@
         <v>25655</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7571,13 +7571,13 @@
         <v>294851</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7599,13 +7599,13 @@
         <v>294851</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7671,13 +7671,13 @@
         <v>4743</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7699,13 +7699,13 @@
         <v>4743</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7720,13 +7720,13 @@
         <v>20092</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -7748,13 +7748,13 @@
         <v>20092</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7769,13 +7769,13 @@
         <v>297405</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -7797,13 +7797,13 @@
         <v>297405</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7875,7 +7875,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7903,7 +7903,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7918,13 +7918,13 @@
         <v>9735</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -7946,13 +7946,13 @@
         <v>9735</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7967,13 +7967,13 @@
         <v>185676</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7995,13 +7995,13 @@
         <v>185676</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8073,7 +8073,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8101,7 +8101,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8116,13 +8116,13 @@
         <v>26343</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8144,13 +8144,13 @@
         <v>26343</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8165,13 +8165,13 @@
         <v>250880</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8193,13 +8193,13 @@
         <v>250880</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8265,7 +8265,7 @@
         <v>833</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
@@ -8293,7 +8293,7 @@
         <v>833</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
@@ -8314,13 +8314,13 @@
         <v>30157</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8342,13 +8342,13 @@
         <v>30157</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8363,13 +8363,13 @@
         <v>591665</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8391,13 +8391,13 @@
         <v>591665</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8469,7 +8469,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8497,7 +8497,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8512,13 +8512,13 @@
         <v>60102</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -8540,13 +8540,13 @@
         <v>60102</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8561,13 +8561,13 @@
         <v>796212</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8589,13 +8589,13 @@
         <v>796212</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8661,13 +8661,13 @@
         <v>13070</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>13070</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8713,7 +8713,7 @@
         <v>250</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>251</v>
@@ -8741,7 +8741,7 @@
         <v>250</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>251</v>

--- a/data/trans_orig/P1434-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1434-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ABEFAB0-24AE-4F8A-AEC6-52D280CD90A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{223C289C-BAFE-43F5-9339-9EC4F48A4905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B3371F0-9588-4905-8F49-B9460F335738}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{56EEE842-A739-45B7-831C-C9C609FF02FB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="221">
   <si>
     <t>Población con diagnóstico de trastornos de próstata en 2007 (Tasa respuesta: 49,36%)</t>
   </si>
@@ -71,40 +71,28 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>No recogida</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
   </si>
   <si>
     <t>—%</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>95,13%</t>
+    <t>95,08%</t>
   </si>
   <si>
     <t>98,71%</t>
@@ -116,94 +104,82 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>97,03%</t>
   </si>
   <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
   </si>
   <si>
     <t>97,56%</t>
   </si>
   <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
   </si>
   <si>
     <t>98,58%</t>
   </si>
   <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
     <t>1,63%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>4,08%</t>
+    <t>4,46%</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>95,92%</t>
+    <t>95,54%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -212,22 +188,19 @@
     <t>Jaen</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
     <t>1,44%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,57%</t>
+    <t>3,66%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>96,43%</t>
+    <t>96,34%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -236,70 +209,55 @@
     <t>Malaga</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>96,71%</t>
   </si>
   <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
+    <t>7,91%</t>
   </si>
   <si>
     <t>94,07%</t>
   </si>
   <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
+    <t>92,09%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>96,76%</t>
   </si>
   <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,499 +269,439 @@
     <t>3,47%</t>
   </si>
   <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2016 (Tasa respuesta: 49,19%)</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,42%)</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
   </si>
   <si>
     <t>6,77%</t>
   </si>
   <si>
-    <t>96,93%</t>
+    <t>95,83%</t>
   </si>
   <si>
     <t>93,23%</t>
   </si>
   <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2016 (Tasa respuesta: 49,19%)</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>97,46%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,52%)</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
 </sst>
 </file>
@@ -1215,8 +1113,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C5FE56-FEEB-41D3-AA69-77FAD2E6C85B}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D1D4A3-8755-457F-84B7-14449BC374D6}">
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1333,10 +1231,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>7071</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1361,10 +1259,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>7071</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -1382,10 +1280,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="D5" s="7">
-        <v>7071</v>
+        <v>265939</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>16</v>
@@ -1410,10 +1308,10 @@
         <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="N5" s="7">
-        <v>7071</v>
+        <v>265939</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1428,22 +1326,22 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D6" s="7">
-        <v>265939</v>
+        <v>273010</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1459,37 +1357,39 @@
         <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="N6" s="7">
-        <v>265939</v>
+        <v>273010</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7">
+        <v>14657</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7">
-        <v>271</v>
-      </c>
-      <c r="D7" s="7">
-        <v>273010</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>23</v>
@@ -1508,42 +1408,40 @@
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>271</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>273010</v>
+        <v>14657</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7">
+        <v>451</v>
+      </c>
+      <c r="D8" s="7">
+        <v>478418</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1559,40 +1457,40 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>478418</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>14</v>
+        <v>465</v>
       </c>
       <c r="D9" s="7">
-        <v>14657</v>
+        <v>493075</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1608,40 +1506,42 @@
         <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>14</v>
+        <v>465</v>
       </c>
       <c r="N9" s="7">
-        <v>14657</v>
+        <v>493075</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>7790</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="7">
-        <v>451</v>
-      </c>
-      <c r="D10" s="7">
-        <v>478418</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1657,40 +1557,40 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>451</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>478418</v>
+        <v>7790</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>465</v>
+        <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>493075</v>
+        <v>311056</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1706,42 +1606,40 @@
         <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>465</v>
+        <v>302</v>
       </c>
       <c r="N11" s="7">
-        <v>493075</v>
+        <v>311056</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>318846</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1757,40 +1655,42 @@
         <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>318846</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>7790</v>
+        <v>5091</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1806,40 +1706,40 @@
         <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>7790</v>
+        <v>5091</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>302</v>
+        <v>357</v>
       </c>
       <c r="D14" s="7">
-        <v>311056</v>
+        <v>353580</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1855,19 +1755,19 @@
         <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>302</v>
+        <v>357</v>
       </c>
       <c r="N14" s="7">
-        <v>311056</v>
+        <v>353580</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,19 +1776,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="D15" s="7">
-        <v>318846</v>
+        <v>358671</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -1904,42 +1804,42 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="N15" s="7">
-        <v>318846</v>
+        <v>358671</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>3305</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1955,19 +1855,19 @@
         <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>3305</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,19 +1876,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>202</v>
       </c>
       <c r="D17" s="7">
-        <v>5091</v>
+        <v>200003</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2004,40 +1904,40 @@
         <v>14</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>202</v>
       </c>
       <c r="N17" s="7">
-        <v>5091</v>
+        <v>200003</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>357</v>
+        <v>206</v>
       </c>
       <c r="D18" s="7">
-        <v>353580</v>
+        <v>203308</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2053,40 +1953,42 @@
         <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>357</v>
+        <v>206</v>
       </c>
       <c r="N18" s="7">
-        <v>353580</v>
+        <v>203308</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>362</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>358671</v>
+        <v>3898</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2102,42 +2004,40 @@
         <v>14</v>
       </c>
       <c r="M19" s="7">
-        <v>362</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>358671</v>
+        <v>3898</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>266913</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2153,40 +2053,40 @@
         <v>14</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>266913</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>4</v>
+        <v>266</v>
       </c>
       <c r="D21" s="7">
-        <v>3305</v>
+        <v>270811</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2202,40 +2102,42 @@
         <v>14</v>
       </c>
       <c r="M21" s="7">
-        <v>4</v>
+        <v>266</v>
       </c>
       <c r="N21" s="7">
-        <v>3305</v>
+        <v>270811</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="D22" s="7">
-        <v>200003</v>
+        <v>20246</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2251,40 +2153,40 @@
         <v>14</v>
       </c>
       <c r="M22" s="7">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="N22" s="7">
-        <v>200003</v>
+        <v>20246</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>206</v>
+        <v>577</v>
       </c>
       <c r="D23" s="7">
-        <v>203308</v>
+        <v>594781</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2300,42 +2202,40 @@
         <v>14</v>
       </c>
       <c r="M23" s="7">
-        <v>206</v>
+        <v>577</v>
       </c>
       <c r="N23" s="7">
-        <v>203308</v>
+        <v>594781</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>615027</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2351,40 +2251,42 @@
         <v>14</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>615027</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D25" s="7">
-        <v>3898</v>
+        <v>44129</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2400,40 +2302,40 @@
         <v>14</v>
       </c>
       <c r="M25" s="7">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="N25" s="7">
-        <v>3898</v>
+        <v>44129</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>262</v>
+        <v>689</v>
       </c>
       <c r="D26" s="7">
-        <v>266913</v>
+        <v>699666</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2449,19 +2351,19 @@
         <v>14</v>
       </c>
       <c r="M26" s="7">
-        <v>262</v>
+        <v>689</v>
       </c>
       <c r="N26" s="7">
-        <v>266913</v>
+        <v>699666</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,19 +2372,19 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>266</v>
+        <v>736</v>
       </c>
       <c r="D27" s="7">
-        <v>270811</v>
+        <v>743795</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2498,42 +2400,42 @@
         <v>14</v>
       </c>
       <c r="M27" s="7">
-        <v>266</v>
+        <v>736</v>
       </c>
       <c r="N27" s="7">
-        <v>270811</v>
+        <v>743795</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>106188</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2549,19 +2451,19 @@
         <v>14</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>106188</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,19 +2472,19 @@
         <v>15</v>
       </c>
       <c r="C29" s="7">
-        <v>21</v>
+        <v>3103</v>
       </c>
       <c r="D29" s="7">
-        <v>20246</v>
+        <v>3170356</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2598,40 +2500,40 @@
         <v>14</v>
       </c>
       <c r="M29" s="7">
-        <v>21</v>
+        <v>3103</v>
       </c>
       <c r="N29" s="7">
-        <v>20246</v>
+        <v>3170356</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>577</v>
+        <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>594781</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2647,494 +2549,49 @@
         <v>14</v>
       </c>
       <c r="M30" s="7">
-        <v>577</v>
+        <v>3214</v>
       </c>
       <c r="N30" s="7">
-        <v>594781</v>
+        <v>3276544</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
-        <v>598</v>
-      </c>
-      <c r="D31" s="7">
-        <v>615027</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="7">
-        <v>598</v>
-      </c>
-      <c r="N31" s="7">
-        <v>615027</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="A31" t="s">
         <v>73</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="7">
-        <v>47</v>
-      </c>
-      <c r="D33" s="7">
-        <v>44129</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" s="7">
-        <v>47</v>
-      </c>
-      <c r="N33" s="7">
-        <v>44129</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="7">
-        <v>689</v>
-      </c>
-      <c r="D34" s="7">
-        <v>699666</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M34" s="7">
-        <v>689</v>
-      </c>
-      <c r="N34" s="7">
-        <v>699666</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="7">
-        <v>736</v>
-      </c>
-      <c r="D35" s="7">
-        <v>743795</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M35" s="7">
-        <v>736</v>
-      </c>
-      <c r="N35" s="7">
-        <v>743795</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7">
-        <v>0</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="7">
-        <v>111</v>
-      </c>
-      <c r="D37" s="7">
-        <v>106188</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M37" s="7">
-        <v>111</v>
-      </c>
-      <c r="N37" s="7">
-        <v>106188</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="7">
-        <v>3103</v>
-      </c>
-      <c r="D38" s="7">
-        <v>3170355</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M38" s="7">
-        <v>3103</v>
-      </c>
-      <c r="N38" s="7">
-        <v>3170355</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D39" s="7">
-        <v>3276543</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M39" s="7">
-        <v>3214</v>
-      </c>
-      <c r="N39" s="7">
-        <v>3276543</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADF6F11-9416-47E7-83B6-40652F69D8A3}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC6C20C-552A-416D-A45E-E13289A7F763}">
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3150,7 +2607,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3338,7 +2795,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -3381,22 +2838,26 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D7" s="7">
+        <v>17561</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3412,40 +2873,40 @@
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="N7" s="7">
+        <v>17561</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>487966</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3461,40 +2922,40 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>487966</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>15</v>
+        <v>472</v>
       </c>
       <c r="D9" s="7">
-        <v>17561</v>
+        <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3510,40 +2971,42 @@
         <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>15</v>
+        <v>472</v>
       </c>
       <c r="N9" s="7">
-        <v>17561</v>
+        <v>505527</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>457</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>487966</v>
+        <v>6116</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3559,40 +3022,40 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>457</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>487966</v>
+        <v>6116</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>472</v>
+        <v>313</v>
       </c>
       <c r="D11" s="7">
-        <v>505527</v>
+        <v>317930</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3608,42 +3071,40 @@
         <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>472</v>
+        <v>313</v>
       </c>
       <c r="N11" s="7">
-        <v>505527</v>
+        <v>317930</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3659,40 +3120,42 @@
         <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>324046</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>23</v>
+      </c>
+      <c r="D13" s="7">
+        <v>26732</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="7">
-        <v>6</v>
-      </c>
-      <c r="D13" s="7">
-        <v>6116</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3708,40 +3171,40 @@
         <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="N13" s="7">
-        <v>6116</v>
+        <v>26732</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>313</v>
+        <v>603</v>
       </c>
       <c r="D14" s="7">
-        <v>317930</v>
+        <v>641988</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3757,19 +3220,19 @@
         <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>313</v>
+        <v>603</v>
       </c>
       <c r="N14" s="7">
-        <v>317930</v>
+        <v>641988</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,19 +3241,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>319</v>
+        <v>626</v>
       </c>
       <c r="D15" s="7">
-        <v>324046</v>
+        <v>668720</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -3806,42 +3269,42 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>319</v>
+        <v>626</v>
       </c>
       <c r="N15" s="7">
-        <v>324046</v>
+        <v>668720</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>6535</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3857,19 +3320,19 @@
         <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>6535</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,19 +3341,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="D17" s="7">
-        <v>26732</v>
+        <v>206083</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3906,40 +3369,40 @@
         <v>14</v>
       </c>
       <c r="M17" s="7">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="N17" s="7">
-        <v>26732</v>
+        <v>206083</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>603</v>
+        <v>196</v>
       </c>
       <c r="D18" s="7">
-        <v>641988</v>
+        <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3955,40 +3418,42 @@
         <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>603</v>
+        <v>196</v>
       </c>
       <c r="N18" s="7">
-        <v>641988</v>
+        <v>212618</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>626</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>668720</v>
+        <v>6255</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4004,42 +3469,40 @@
         <v>14</v>
       </c>
       <c r="M19" s="7">
-        <v>626</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>668720</v>
+        <v>6255</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>267726</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4055,40 +3518,40 @@
         <v>14</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>267726</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>6</v>
+        <v>261</v>
       </c>
       <c r="D21" s="7">
-        <v>6535</v>
+        <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4104,40 +3567,42 @@
         <v>14</v>
       </c>
       <c r="M21" s="7">
-        <v>6</v>
+        <v>261</v>
       </c>
       <c r="N21" s="7">
-        <v>6535</v>
+        <v>273981</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="D22" s="7">
-        <v>206083</v>
+        <v>26159</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4153,40 +3618,40 @@
         <v>14</v>
       </c>
       <c r="M22" s="7">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="N22" s="7">
-        <v>206083</v>
+        <v>26159</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>196</v>
+        <v>593</v>
       </c>
       <c r="D23" s="7">
-        <v>212618</v>
+        <v>634437</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4202,42 +3667,40 @@
         <v>14</v>
       </c>
       <c r="M23" s="7">
-        <v>196</v>
+        <v>593</v>
       </c>
       <c r="N23" s="7">
-        <v>212618</v>
+        <v>634437</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>660596</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4253,40 +3716,42 @@
         <v>14</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>660596</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D25" s="7">
-        <v>6255</v>
+        <v>35050</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4302,40 +3767,40 @@
         <v>14</v>
       </c>
       <c r="M25" s="7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="N25" s="7">
-        <v>6255</v>
+        <v>35050</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>255</v>
+        <v>685</v>
       </c>
       <c r="D26" s="7">
-        <v>267726</v>
+        <v>744048</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4351,19 +3816,19 @@
         <v>14</v>
       </c>
       <c r="M26" s="7">
-        <v>255</v>
+        <v>685</v>
       </c>
       <c r="N26" s="7">
-        <v>267726</v>
+        <v>744048</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,19 +3837,19 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>261</v>
+        <v>717</v>
       </c>
       <c r="D27" s="7">
-        <v>273981</v>
+        <v>779098</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -4400,42 +3865,42 @@
         <v>14</v>
       </c>
       <c r="M27" s="7">
-        <v>261</v>
+        <v>717</v>
       </c>
       <c r="N27" s="7">
-        <v>273981</v>
+        <v>779098</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>124409</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4451,19 +3916,19 @@
         <v>14</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>124409</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,19 +3937,19 @@
         <v>15</v>
       </c>
       <c r="C29" s="7">
-        <v>24</v>
+        <v>3096</v>
       </c>
       <c r="D29" s="7">
-        <v>26159</v>
+        <v>3300178</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4500,40 +3965,40 @@
         <v>14</v>
       </c>
       <c r="M29" s="7">
-        <v>24</v>
+        <v>3096</v>
       </c>
       <c r="N29" s="7">
-        <v>26159</v>
+        <v>3300178</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>593</v>
+        <v>3208</v>
       </c>
       <c r="D30" s="7">
-        <v>634437</v>
+        <v>3424587</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -4549,494 +4014,49 @@
         <v>14</v>
       </c>
       <c r="M30" s="7">
-        <v>593</v>
+        <v>3208</v>
       </c>
       <c r="N30" s="7">
-        <v>634437</v>
+        <v>3424587</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
-        <v>617</v>
-      </c>
-      <c r="D31" s="7">
-        <v>660596</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="7">
-        <v>617</v>
-      </c>
-      <c r="N31" s="7">
-        <v>660596</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="7">
-        <v>32</v>
-      </c>
-      <c r="D33" s="7">
-        <v>35050</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" s="7">
-        <v>32</v>
-      </c>
-      <c r="N33" s="7">
-        <v>35050</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="7">
-        <v>685</v>
-      </c>
-      <c r="D34" s="7">
-        <v>744048</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M34" s="7">
-        <v>685</v>
-      </c>
-      <c r="N34" s="7">
-        <v>744048</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="7">
-        <v>717</v>
-      </c>
-      <c r="D35" s="7">
-        <v>779098</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M35" s="7">
-        <v>717</v>
-      </c>
-      <c r="N35" s="7">
-        <v>779098</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7">
-        <v>0</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="7">
-        <v>112</v>
-      </c>
-      <c r="D37" s="7">
-        <v>124409</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M37" s="7">
-        <v>112</v>
-      </c>
-      <c r="N37" s="7">
-        <v>124409</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="7">
-        <v>3096</v>
-      </c>
-      <c r="D38" s="7">
-        <v>3300178</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M38" s="7">
-        <v>3096</v>
-      </c>
-      <c r="N38" s="7">
-        <v>3300178</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>3208</v>
-      </c>
-      <c r="D39" s="7">
-        <v>3424587</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M39" s="7">
-        <v>3208</v>
-      </c>
-      <c r="N39" s="7">
-        <v>3424587</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>87</v>
+      <c r="A31" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336C41AC-619D-4EC7-9D75-DED8F6BF189B}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32F43A5-DFB6-45A2-9A42-1D1432A30813}">
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5052,7 +4072,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5153,19 +4173,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>17116</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5181,19 +4201,19 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>17116</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,19 +4222,19 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="D5" s="7">
-        <v>17116</v>
+        <v>276645</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5230,40 +4250,40 @@
         <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="N5" s="7">
-        <v>17116</v>
+        <v>276645</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="D6" s="7">
-        <v>276645</v>
+        <v>293761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5279,40 +4299,42 @@
         <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>276645</v>
+        <v>293761</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>266</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>293761</v>
+        <v>10375</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5328,42 +4350,40 @@
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>266</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>293761</v>
+        <v>10375</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>492200</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5379,40 +4399,40 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>492200</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>10</v>
+        <v>475</v>
       </c>
       <c r="D9" s="7">
-        <v>10375</v>
+        <v>502575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5428,40 +4448,42 @@
         <v>14</v>
       </c>
       <c r="M9" s="7">
+        <v>475</v>
+      </c>
+      <c r="N9" s="7">
+        <v>502575</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="7">
-        <v>10375</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="C10" s="7">
-        <v>465</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>492200</v>
+        <v>16099</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5477,40 +4499,40 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>465</v>
+        <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>492200</v>
+        <v>16099</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>475</v>
+        <v>318</v>
       </c>
       <c r="D11" s="7">
-        <v>502575</v>
+        <v>302466</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -5526,42 +4548,40 @@
         <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>475</v>
+        <v>318</v>
       </c>
       <c r="N11" s="7">
-        <v>502575</v>
+        <v>302466</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5577,40 +4597,42 @@
         <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>318565</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>16099</v>
+        <v>12649</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5626,40 +4648,40 @@
         <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>16099</v>
+        <v>12649</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="D14" s="7">
-        <v>302466</v>
+        <v>357315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5675,19 +4697,19 @@
         <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="N14" s="7">
-        <v>302466</v>
+        <v>357315</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,19 +4718,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="D15" s="7">
-        <v>318565</v>
+        <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5724,42 +4746,42 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="N15" s="7">
-        <v>318565</v>
+        <v>369964</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>5375</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5775,19 +4797,19 @@
         <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>5375</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,19 +4818,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="D17" s="7">
-        <v>12649</v>
+        <v>205846</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5824,40 +4846,40 @@
         <v>14</v>
       </c>
       <c r="M17" s="7">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="N17" s="7">
-        <v>12649</v>
+        <v>205846</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>340</v>
+        <v>212</v>
       </c>
       <c r="D18" s="7">
-        <v>357315</v>
+        <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5873,40 +4895,42 @@
         <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>340</v>
+        <v>212</v>
       </c>
       <c r="N18" s="7">
-        <v>357315</v>
+        <v>211221</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>354</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>369964</v>
+        <v>5427</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5922,42 +4946,40 @@
         <v>14</v>
       </c>
       <c r="M19" s="7">
-        <v>354</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>369964</v>
+        <v>5427</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>257696</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5973,40 +4995,40 @@
         <v>14</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>257696</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>6</v>
+        <v>259</v>
       </c>
       <c r="D21" s="7">
-        <v>5375</v>
+        <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6022,40 +5044,42 @@
         <v>14</v>
       </c>
       <c r="M21" s="7">
-        <v>6</v>
+        <v>259</v>
       </c>
       <c r="N21" s="7">
-        <v>5375</v>
+        <v>263123</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="D22" s="7">
-        <v>205846</v>
+        <v>19866</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6071,40 +5095,40 @@
         <v>14</v>
       </c>
       <c r="M22" s="7">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="N22" s="7">
-        <v>205846</v>
+        <v>19866</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>212</v>
+        <v>560</v>
       </c>
       <c r="D23" s="7">
-        <v>211221</v>
+        <v>636692</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6120,42 +5144,40 @@
         <v>14</v>
       </c>
       <c r="M23" s="7">
-        <v>212</v>
+        <v>560</v>
       </c>
       <c r="N23" s="7">
-        <v>211221</v>
+        <v>636692</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>656558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6171,40 +5193,42 @@
         <v>14</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>656558</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D25" s="7">
-        <v>5427</v>
+        <v>22095</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6220,40 +5244,40 @@
         <v>14</v>
       </c>
       <c r="M25" s="7">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="N25" s="7">
-        <v>5427</v>
+        <v>22095</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>253</v>
+        <v>727</v>
       </c>
       <c r="D26" s="7">
-        <v>257696</v>
+        <v>756488</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6269,19 +5293,19 @@
         <v>14</v>
       </c>
       <c r="M26" s="7">
-        <v>253</v>
+        <v>727</v>
       </c>
       <c r="N26" s="7">
-        <v>257696</v>
+        <v>756488</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6290,19 +5314,19 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>259</v>
+        <v>750</v>
       </c>
       <c r="D27" s="7">
-        <v>263123</v>
+        <v>778583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -6318,42 +5342,42 @@
         <v>14</v>
       </c>
       <c r="M27" s="7">
-        <v>259</v>
+        <v>750</v>
       </c>
       <c r="N27" s="7">
-        <v>263123</v>
+        <v>778583</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>109002</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6369,19 +5393,19 @@
         <v>14</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>109002</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,19 +5414,19 @@
         <v>15</v>
       </c>
       <c r="C29" s="7">
-        <v>20</v>
+        <v>3117</v>
       </c>
       <c r="D29" s="7">
-        <v>19866</v>
+        <v>3285348</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6418,40 +5442,40 @@
         <v>14</v>
       </c>
       <c r="M29" s="7">
-        <v>20</v>
+        <v>3117</v>
       </c>
       <c r="N29" s="7">
-        <v>19866</v>
+        <v>3285348</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>560</v>
+        <v>3231</v>
       </c>
       <c r="D30" s="7">
-        <v>636692</v>
+        <v>3394350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6467,494 +5491,49 @@
         <v>14</v>
       </c>
       <c r="M30" s="7">
-        <v>560</v>
+        <v>3231</v>
       </c>
       <c r="N30" s="7">
-        <v>636692</v>
+        <v>3394350</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
-        <v>580</v>
-      </c>
-      <c r="D31" s="7">
-        <v>656558</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="7">
-        <v>580</v>
-      </c>
-      <c r="N31" s="7">
-        <v>656558</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="A31" t="s">
         <v>73</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="7">
-        <v>23</v>
-      </c>
-      <c r="D33" s="7">
-        <v>22095</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" s="7">
-        <v>23</v>
-      </c>
-      <c r="N33" s="7">
-        <v>22095</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="7">
-        <v>727</v>
-      </c>
-      <c r="D34" s="7">
-        <v>756488</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M34" s="7">
-        <v>727</v>
-      </c>
-      <c r="N34" s="7">
-        <v>756488</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="7">
-        <v>750</v>
-      </c>
-      <c r="D35" s="7">
-        <v>778583</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M35" s="7">
-        <v>750</v>
-      </c>
-      <c r="N35" s="7">
-        <v>778583</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7">
-        <v>0</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="7">
-        <v>114</v>
-      </c>
-      <c r="D37" s="7">
-        <v>109002</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M37" s="7">
-        <v>114</v>
-      </c>
-      <c r="N37" s="7">
-        <v>109002</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="7">
-        <v>3117</v>
-      </c>
-      <c r="D38" s="7">
-        <v>3285348</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M38" s="7">
-        <v>3117</v>
-      </c>
-      <c r="N38" s="7">
-        <v>3285348</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D39" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M39" s="7">
-        <v>3231</v>
-      </c>
-      <c r="N39" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E47214-DDC5-4D8A-BD10-C2870E676282}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97449B38-96A1-4E8D-8878-0CCA894555C6}">
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6970,7 +5549,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7071,19 +5650,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>10859</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7099,19 +5678,19 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>10859</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7120,19 +5699,19 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="D5" s="7">
-        <v>10859</v>
+        <v>249439</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7148,40 +5727,40 @@
         <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="N5" s="7">
-        <v>10859</v>
+        <v>249439</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>249439</v>
+        <v>260298</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7197,40 +5776,42 @@
         <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="N6" s="7">
-        <v>249439</v>
+        <v>260298</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>331</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>11444</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -7246,42 +5827,40 @@
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>331</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>260298</v>
+        <v>11444</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>368</v>
       </c>
       <c r="D8" s="7">
-        <v>2646</v>
+        <v>504137</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -7297,40 +5876,40 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>368</v>
       </c>
       <c r="N8" s="7">
-        <v>2646</v>
+        <v>504137</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>11</v>
+        <v>379</v>
       </c>
       <c r="D9" s="7">
-        <v>11444</v>
+        <v>515581</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7346,40 +5925,42 @@
         <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>11</v>
+        <v>379</v>
       </c>
       <c r="N9" s="7">
-        <v>11444</v>
+        <v>515581</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>368</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>504137</v>
+        <v>25655</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7395,40 +5976,40 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>368</v>
+        <v>39</v>
       </c>
       <c r="N10" s="7">
-        <v>504137</v>
+        <v>25655</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>381</v>
+        <v>319</v>
       </c>
       <c r="D11" s="7">
-        <v>518227</v>
+        <v>294851</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -7444,42 +6025,40 @@
         <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>381</v>
+        <v>319</v>
       </c>
       <c r="N11" s="7">
-        <v>518227</v>
+        <v>294851</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>358</v>
       </c>
       <c r="D12" s="7">
-        <v>1734</v>
+        <v>320506</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -7495,40 +6074,42 @@
         <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>358</v>
       </c>
       <c r="N12" s="7">
-        <v>1734</v>
+        <v>320506</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>25655</v>
+        <v>20092</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7544,40 +6125,40 @@
         <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>25655</v>
+        <v>20092</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>319</v>
+        <v>263</v>
       </c>
       <c r="D14" s="7">
-        <v>294851</v>
+        <v>297405</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7593,19 +6174,19 @@
         <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>319</v>
+        <v>263</v>
       </c>
       <c r="N14" s="7">
-        <v>294851</v>
+        <v>297405</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,19 +6195,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>317497</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -7642,42 +6223,42 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="N15" s="7">
-        <v>322240</v>
+        <v>317497</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D16" s="7">
-        <v>4743</v>
+        <v>9735</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7693,19 +6274,19 @@
         <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="N16" s="7">
-        <v>4743</v>
+        <v>9735</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7714,19 +6295,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="D17" s="7">
-        <v>20092</v>
+        <v>185676</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -7742,40 +6323,40 @@
         <v>14</v>
       </c>
       <c r="M17" s="7">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="N17" s="7">
-        <v>20092</v>
+        <v>185676</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="D18" s="7">
-        <v>297405</v>
+        <v>195411</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -7791,40 +6372,42 @@
         <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="N18" s="7">
-        <v>297405</v>
+        <v>195411</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>220</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>292</v>
+        <v>52</v>
       </c>
       <c r="D19" s="7">
-        <v>322240</v>
+        <v>26343</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7840,42 +6423,40 @@
         <v>14</v>
       </c>
       <c r="M19" s="7">
-        <v>292</v>
+        <v>52</v>
       </c>
       <c r="N19" s="7">
-        <v>322240</v>
+        <v>26343</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>250880</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7891,40 +6472,40 @@
         <v>14</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>250880</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>17</v>
+        <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>9735</v>
+        <v>277223</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>222</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -7940,40 +6521,42 @@
         <v>14</v>
       </c>
       <c r="M21" s="7">
-        <v>17</v>
+        <v>371</v>
       </c>
       <c r="N21" s="7">
-        <v>9735</v>
+        <v>277223</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>222</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>224</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>260</v>
+        <v>35</v>
       </c>
       <c r="D22" s="7">
-        <v>185676</v>
+        <v>30157</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7989,40 +6572,40 @@
         <v>14</v>
       </c>
       <c r="M22" s="7">
-        <v>260</v>
+        <v>35</v>
       </c>
       <c r="N22" s="7">
-        <v>185676</v>
+        <v>30157</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>277</v>
+        <v>558</v>
       </c>
       <c r="D23" s="7">
-        <v>195411</v>
+        <v>591666</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -8038,42 +6621,40 @@
         <v>14</v>
       </c>
       <c r="M23" s="7">
-        <v>277</v>
+        <v>558</v>
       </c>
       <c r="N23" s="7">
-        <v>195411</v>
+        <v>591666</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>23</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>621823</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8089,40 +6670,42 @@
         <v>14</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>621823</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D25" s="7">
-        <v>26343</v>
+        <v>60102</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8138,40 +6721,40 @@
         <v>14</v>
       </c>
       <c r="M25" s="7">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="N25" s="7">
-        <v>26343</v>
+        <v>60102</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>319</v>
+        <v>678</v>
       </c>
       <c r="D26" s="7">
-        <v>250880</v>
+        <v>796212</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8187,19 +6770,19 @@
         <v>14</v>
       </c>
       <c r="M26" s="7">
-        <v>319</v>
+        <v>678</v>
       </c>
       <c r="N26" s="7">
-        <v>250880</v>
+        <v>796212</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8208,19 +6791,19 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>371</v>
+        <v>760</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>856314</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -8236,42 +6819,42 @@
         <v>14</v>
       </c>
       <c r="M27" s="7">
-        <v>371</v>
+        <v>760</v>
       </c>
       <c r="N27" s="7">
-        <v>277223</v>
+        <v>856314</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>278</v>
       </c>
       <c r="D28" s="7">
-        <v>833</v>
+        <v>194387</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -8287,19 +6870,19 @@
         <v>14</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>278</v>
       </c>
       <c r="N28" s="7">
-        <v>833</v>
+        <v>194387</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8308,19 +6891,19 @@
         <v>15</v>
       </c>
       <c r="C29" s="7">
-        <v>35</v>
+        <v>3081</v>
       </c>
       <c r="D29" s="7">
-        <v>30157</v>
+        <v>3170265</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8336,40 +6919,40 @@
         <v>14</v>
       </c>
       <c r="M29" s="7">
-        <v>35</v>
+        <v>3081</v>
       </c>
       <c r="N29" s="7">
-        <v>30157</v>
+        <v>3170265</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>558</v>
+        <v>3359</v>
       </c>
       <c r="D30" s="7">
-        <v>591665</v>
+        <v>3364652</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8385,486 +6968,41 @@
         <v>14</v>
       </c>
       <c r="M30" s="7">
-        <v>558</v>
+        <v>3359</v>
       </c>
       <c r="N30" s="7">
-        <v>591665</v>
+        <v>3364652</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
-        <v>594</v>
-      </c>
-      <c r="D31" s="7">
-        <v>622656</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="7">
-        <v>594</v>
-      </c>
-      <c r="N31" s="7">
-        <v>622656</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="7">
-        <v>2</v>
-      </c>
-      <c r="D32" s="7">
-        <v>3115</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="7">
-        <v>2</v>
-      </c>
-      <c r="N32" s="7">
-        <v>3115</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="7">
-        <v>82</v>
-      </c>
-      <c r="D33" s="7">
-        <v>60102</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" s="7">
-        <v>82</v>
-      </c>
-      <c r="N33" s="7">
-        <v>60102</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="7">
-        <v>678</v>
-      </c>
-      <c r="D34" s="7">
-        <v>796212</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M34" s="7">
-        <v>678</v>
-      </c>
-      <c r="N34" s="7">
-        <v>796212</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="7">
-        <v>762</v>
-      </c>
-      <c r="D35" s="7">
-        <v>859428</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M35" s="7">
-        <v>762</v>
-      </c>
-      <c r="N35" s="7">
-        <v>859428</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="7">
-        <v>9</v>
-      </c>
-      <c r="D36" s="7">
-        <v>13070</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" s="7">
-        <v>9</v>
-      </c>
-      <c r="N36" s="7">
-        <v>13070</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="7">
-        <v>278</v>
-      </c>
-      <c r="D37" s="7">
-        <v>194387</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M37" s="7">
-        <v>278</v>
-      </c>
-      <c r="N37" s="7">
-        <v>194387</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="7">
-        <v>3081</v>
-      </c>
-      <c r="D38" s="7">
-        <v>3170265</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M38" s="7">
-        <v>3081</v>
-      </c>
-      <c r="N38" s="7">
-        <v>3170265</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>3368</v>
-      </c>
-      <c r="D39" s="7">
-        <v>3377723</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M39" s="7">
-        <v>3368</v>
-      </c>
-      <c r="N39" s="7">
-        <v>3377723</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>87</v>
+      <c r="A31" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P1434-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1434-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{223C289C-BAFE-43F5-9339-9EC4F48A4905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F122A51-0B09-43FD-9CD1-9F2D37F0463E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{56EEE842-A739-45B7-831C-C9C609FF02FB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EAF333E1-9ABF-42BB-85F8-238E377F8787}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="229">
   <si>
     <t>Población con diagnóstico de trastornos de próstata en 2007 (Tasa respuesta: 49,36%)</t>
   </si>
@@ -266,6 +266,24 @@
     <t>Población con diagnóstico de trastornos de próstata en 2012 (Tasa respuesta: 49,3%)</t>
   </si>
   <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
     <t>3,47%</t>
   </si>
   <si>
@@ -302,16 +320,22 @@
     <t>99,36%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
   </si>
   <si>
     <t>3,07%</t>
@@ -554,154 +578,154 @@
     <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,42%)</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>7,83%</t>
+    <t>7,84%</t>
   </si>
   <si>
     <t>95,02%</t>
   </si>
   <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D1D4A3-8755-457F-84B7-14449BC374D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BAD4EC-F378-4734-B4AC-0B9DD2C0AE40}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2475,7 +2499,7 @@
         <v>3103</v>
       </c>
       <c r="D29" s="7">
-        <v>3170356</v>
+        <v>3170355</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>70</v>
@@ -2503,7 +2527,7 @@
         <v>3103</v>
       </c>
       <c r="N29" s="7">
-        <v>3170356</v>
+        <v>3170355</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>70</v>
@@ -2524,7 +2548,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -2552,7 +2576,7 @@
         <v>3214</v>
       </c>
       <c r="N30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -2590,7 +2614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC6C20C-552A-416D-A45E-E13289A7F763}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3812DB-540A-48CA-84F5-5D50D1B17372}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2708,17 +2732,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D4" s="7">
+        <v>17679</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2734,17 +2760,19 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="N4" s="7">
+        <v>17679</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,17 +2781,19 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>266</v>
+      </c>
+      <c r="D5" s="7">
+        <v>277059</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2779,17 +2809,19 @@
         <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>266</v>
+      </c>
+      <c r="N5" s="7">
+        <v>277059</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,17 +2830,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2824,17 +2858,19 @@
         <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="N6" s="7">
+        <v>294738</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2887,13 @@
         <v>17561</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2879,13 +2915,13 @@
         <v>17561</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2936,13 @@
         <v>487966</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2928,13 +2964,13 @@
         <v>487966</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +3036,13 @@
         <v>6116</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3028,13 +3064,13 @@
         <v>6116</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3085,13 @@
         <v>317930</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3077,13 +3113,13 @@
         <v>317930</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,19 +3179,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>26732</v>
+        <v>9053</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3171,19 +3207,19 @@
         <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>26732</v>
+        <v>9053</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,19 +3228,19 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>603</v>
+        <v>337</v>
       </c>
       <c r="D14" s="7">
-        <v>641988</v>
+        <v>364929</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3220,19 +3256,19 @@
         <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>603</v>
+        <v>337</v>
       </c>
       <c r="N14" s="7">
-        <v>641988</v>
+        <v>364929</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,10 +3277,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3269,10 +3305,10 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="N15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3298,13 +3334,13 @@
         <v>6535</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3326,13 +3362,13 @@
         <v>6535</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3383,13 @@
         <v>206083</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3375,13 +3411,13 @@
         <v>206083</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3483,13 @@
         <v>6255</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3475,13 +3511,13 @@
         <v>6255</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3532,13 @@
         <v>267726</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3524,13 +3560,13 @@
         <v>267726</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,13 +3632,13 @@
         <v>26159</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3624,13 +3660,13 @@
         <v>26159</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,16 +3678,16 @@
         <v>593</v>
       </c>
       <c r="D23" s="7">
-        <v>634437</v>
+        <v>634438</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3670,16 +3706,16 @@
         <v>593</v>
       </c>
       <c r="N23" s="7">
-        <v>634437</v>
+        <v>634438</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,7 +3727,7 @@
         <v>617</v>
       </c>
       <c r="D24" s="7">
-        <v>660596</v>
+        <v>660597</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -3719,7 +3755,7 @@
         <v>617</v>
       </c>
       <c r="N24" s="7">
-        <v>660596</v>
+        <v>660597</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -3745,13 +3781,13 @@
         <v>35050</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3773,13 +3809,13 @@
         <v>35050</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3830,13 @@
         <v>744048</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3822,13 +3858,13 @@
         <v>744048</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,13 +3930,13 @@
         <v>124409</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3922,13 +3958,13 @@
         <v>124409</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3979,13 @@
         <v>3300178</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3971,13 +4007,13 @@
         <v>3300178</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,7 +4091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32F43A5-DFB6-45A2-9A42-1D1432A30813}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA6E626-F23B-4391-BAAD-6C53FDF602FA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4072,7 +4108,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4179,13 +4215,13 @@
         <v>17116</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4207,13 +4243,13 @@
         <v>17116</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4264,13 @@
         <v>276645</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4256,13 +4292,13 @@
         <v>276645</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4364,13 @@
         <v>10375</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4356,13 +4392,13 @@
         <v>10375</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,13 +4413,13 @@
         <v>492200</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4405,13 +4441,13 @@
         <v>492200</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4513,13 @@
         <v>16099</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4505,13 +4541,13 @@
         <v>16099</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4562,13 @@
         <v>302466</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4554,13 +4590,13 @@
         <v>302466</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,13 +4662,13 @@
         <v>12649</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4654,13 +4690,13 @@
         <v>12649</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4711,13 @@
         <v>357315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4703,13 +4739,13 @@
         <v>357315</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,13 +4811,13 @@
         <v>5375</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4803,13 +4839,13 @@
         <v>5375</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,13 +4860,13 @@
         <v>205846</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4852,13 +4888,13 @@
         <v>205846</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,13 +4960,13 @@
         <v>5427</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4952,13 +4988,13 @@
         <v>5427</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +5009,13 @@
         <v>257696</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5001,13 +5037,13 @@
         <v>257696</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,13 +5109,13 @@
         <v>19866</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5101,13 +5137,13 @@
         <v>19866</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,13 +5158,13 @@
         <v>636692</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5150,13 +5186,13 @@
         <v>636692</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,13 +5258,13 @@
         <v>22095</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5250,13 +5286,13 @@
         <v>22095</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5307,13 @@
         <v>756488</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5299,13 +5335,13 @@
         <v>756488</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5371,13 +5407,13 @@
         <v>109002</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5399,13 +5435,13 @@
         <v>109002</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5456,13 @@
         <v>3285348</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5448,13 +5484,13 @@
         <v>3285348</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,7 +5568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97449B38-96A1-4E8D-8878-0CCA894555C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62BC30D-DEE3-41F4-BBD9-D9BD1AA20373}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5549,7 +5585,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5653,16 +5689,16 @@
         <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>10859</v>
+        <v>11871</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5681,16 +5717,16 @@
         <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>10859</v>
+        <v>11871</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,16 +5738,16 @@
         <v>316</v>
       </c>
       <c r="D5" s="7">
-        <v>249439</v>
+        <v>299572</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5730,16 +5766,16 @@
         <v>316</v>
       </c>
       <c r="N5" s="7">
-        <v>249439</v>
+        <v>299572</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,7 +5787,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -5779,7 +5815,7 @@
         <v>331</v>
       </c>
       <c r="N6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -5802,16 +5838,16 @@
         <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>11444</v>
+        <v>10825</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5830,16 +5866,16 @@
         <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>11444</v>
+        <v>10825</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,16 +5887,16 @@
         <v>368</v>
       </c>
       <c r="D8" s="7">
-        <v>504137</v>
+        <v>503991</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5879,16 +5915,16 @@
         <v>368</v>
       </c>
       <c r="N8" s="7">
-        <v>504137</v>
+        <v>503991</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,7 +5936,7 @@
         <v>379</v>
       </c>
       <c r="D9" s="7">
-        <v>515581</v>
+        <v>514816</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -5928,7 +5964,7 @@
         <v>379</v>
       </c>
       <c r="N9" s="7">
-        <v>515581</v>
+        <v>514816</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -5951,16 +5987,16 @@
         <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>25655</v>
+        <v>24271</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5979,16 +6015,16 @@
         <v>39</v>
       </c>
       <c r="N10" s="7">
-        <v>25655</v>
+        <v>24271</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,16 +6036,16 @@
         <v>319</v>
       </c>
       <c r="D11" s="7">
-        <v>294851</v>
+        <v>290111</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6028,16 +6064,16 @@
         <v>319</v>
       </c>
       <c r="N11" s="7">
-        <v>294851</v>
+        <v>290111</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,7 +6085,7 @@
         <v>358</v>
       </c>
       <c r="D12" s="7">
-        <v>320506</v>
+        <v>314382</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -6077,7 +6113,7 @@
         <v>358</v>
       </c>
       <c r="N12" s="7">
-        <v>320506</v>
+        <v>314382</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -6100,16 +6136,16 @@
         <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>20092</v>
+        <v>19029</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6128,16 +6164,16 @@
         <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>20092</v>
+        <v>19029</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,16 +6185,16 @@
         <v>263</v>
       </c>
       <c r="D14" s="7">
-        <v>297405</v>
+        <v>288416</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6177,16 +6213,16 @@
         <v>263</v>
       </c>
       <c r="N14" s="7">
-        <v>297405</v>
+        <v>288416</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,7 +6234,7 @@
         <v>290</v>
       </c>
       <c r="D15" s="7">
-        <v>317497</v>
+        <v>307445</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -6226,7 +6262,7 @@
         <v>290</v>
       </c>
       <c r="N15" s="7">
-        <v>317497</v>
+        <v>307445</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6249,16 +6285,16 @@
         <v>17</v>
       </c>
       <c r="D16" s="7">
-        <v>9735</v>
+        <v>8835</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6277,16 +6313,16 @@
         <v>17</v>
       </c>
       <c r="N16" s="7">
-        <v>9735</v>
+        <v>8835</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,16 +6334,16 @@
         <v>260</v>
       </c>
       <c r="D17" s="7">
-        <v>185676</v>
+        <v>168671</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6326,16 +6362,16 @@
         <v>260</v>
       </c>
       <c r="N17" s="7">
-        <v>185676</v>
+        <v>168671</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,7 +6383,7 @@
         <v>277</v>
       </c>
       <c r="D18" s="7">
-        <v>195411</v>
+        <v>177506</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -6375,7 +6411,7 @@
         <v>277</v>
       </c>
       <c r="N18" s="7">
-        <v>195411</v>
+        <v>177506</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -6398,16 +6434,16 @@
         <v>52</v>
       </c>
       <c r="D19" s="7">
-        <v>26343</v>
+        <v>25183</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6426,16 +6462,16 @@
         <v>52</v>
       </c>
       <c r="N19" s="7">
-        <v>26343</v>
+        <v>25183</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,16 +6483,16 @@
         <v>319</v>
       </c>
       <c r="D20" s="7">
-        <v>250880</v>
+        <v>244453</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6475,16 +6511,16 @@
         <v>319</v>
       </c>
       <c r="N20" s="7">
-        <v>250880</v>
+        <v>244453</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,7 +6532,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6524,7 +6560,7 @@
         <v>371</v>
       </c>
       <c r="N21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -6547,16 +6583,16 @@
         <v>35</v>
       </c>
       <c r="D22" s="7">
-        <v>30157</v>
+        <v>28459</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6575,16 +6611,16 @@
         <v>35</v>
       </c>
       <c r="N22" s="7">
-        <v>30157</v>
+        <v>28459</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,16 +6632,16 @@
         <v>558</v>
       </c>
       <c r="D23" s="7">
-        <v>591666</v>
+        <v>590238</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6624,16 +6660,16 @@
         <v>558</v>
       </c>
       <c r="N23" s="7">
-        <v>591666</v>
+        <v>590238</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6645,7 +6681,7 @@
         <v>593</v>
       </c>
       <c r="D24" s="7">
-        <v>621823</v>
+        <v>618697</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -6673,7 +6709,7 @@
         <v>593</v>
       </c>
       <c r="N24" s="7">
-        <v>621823</v>
+        <v>618697</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -6696,16 +6732,16 @@
         <v>82</v>
       </c>
       <c r="D25" s="7">
-        <v>60102</v>
+        <v>51764</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6724,16 +6760,16 @@
         <v>82</v>
       </c>
       <c r="N25" s="7">
-        <v>60102</v>
+        <v>51764</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,16 +6781,16 @@
         <v>678</v>
       </c>
       <c r="D26" s="7">
-        <v>796212</v>
+        <v>874322</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6773,16 +6809,16 @@
         <v>678</v>
       </c>
       <c r="N26" s="7">
-        <v>796212</v>
+        <v>874322</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6794,7 +6830,7 @@
         <v>760</v>
       </c>
       <c r="D27" s="7">
-        <v>856314</v>
+        <v>926086</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -6822,7 +6858,7 @@
         <v>760</v>
       </c>
       <c r="N27" s="7">
-        <v>856314</v>
+        <v>926086</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -6845,16 +6881,16 @@
         <v>278</v>
       </c>
       <c r="D28" s="7">
-        <v>194387</v>
+        <v>180237</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6873,16 +6909,16 @@
         <v>278</v>
       </c>
       <c r="N28" s="7">
-        <v>194387</v>
+        <v>180237</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,16 +6930,16 @@
         <v>3081</v>
       </c>
       <c r="D29" s="7">
-        <v>3170265</v>
+        <v>3259774</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6922,16 +6958,16 @@
         <v>3081</v>
       </c>
       <c r="N29" s="7">
-        <v>3170265</v>
+        <v>3259774</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,7 +6979,7 @@
         <v>3359</v>
       </c>
       <c r="D30" s="7">
-        <v>3364652</v>
+        <v>3440011</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -6971,7 +7007,7 @@
         <v>3359</v>
       </c>
       <c r="N30" s="7">
-        <v>3364652</v>
+        <v>3440011</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
